--- a/rediff/src/excel/portfolio.xlsx
+++ b/rediff/src/excel/portfolio.xlsx
@@ -373,7 +373,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
